--- a/parsec/Parsec - Avaliação dos Parâmetros.xlsx
+++ b/parsec/Parsec - Avaliação dos Parâmetros.xlsx
@@ -7,17 +7,18 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="evaluation" sheetId="2" r:id="rId1"/>
-    <sheet name="gráfico" sheetId="3" r:id="rId2"/>
-    <sheet name="gráfico_6_programas" sheetId="5" r:id="rId3"/>
-    <sheet name="gráfico_normalizado" sheetId="4" r:id="rId4"/>
+    <sheet name="evaluation-time-real" sheetId="6" r:id="rId1"/>
+    <sheet name="grafico-time-real" sheetId="7" r:id="rId2"/>
+    <sheet name="gráfico-time-user" sheetId="3" r:id="rId3"/>
+    <sheet name="gráfico-time-suer-6-programas" sheetId="5" r:id="rId4"/>
+    <sheet name="evaluation-time-user" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="68">
   <si>
     <t>blackscholes</t>
   </si>
@@ -147,14 +148,89 @@
   <si>
     <t>9m19.408s</t>
   </si>
+  <si>
+    <t>1m15.989s</t>
+  </si>
+  <si>
+    <t>1m59.691s</t>
+  </si>
+  <si>
+    <t>1m22.850s</t>
+  </si>
+  <si>
+    <t>1m12.226s</t>
+  </si>
+  <si>
+    <t>1m30.066s</t>
+  </si>
+  <si>
+    <t>1m22.772s</t>
+  </si>
+  <si>
+    <t>2m13.075s</t>
+  </si>
+  <si>
+    <t>1m28.737s</t>
+  </si>
+  <si>
+    <t>1m16.509s</t>
+  </si>
+  <si>
+    <t>1m19.510s</t>
+  </si>
+  <si>
+    <t>1m30.330s</t>
+  </si>
+  <si>
+    <t>2m31.276s</t>
+  </si>
+  <si>
+    <t>1m38.623s</t>
+  </si>
+  <si>
+    <t>1m26.545s</t>
+  </si>
+  <si>
+    <t>1m26.493s</t>
+  </si>
+  <si>
+    <t>4m53.435s</t>
+  </si>
+  <si>
+    <t>6m45.590s</t>
+  </si>
+  <si>
+    <t>5m20.640s</t>
+  </si>
+  <si>
+    <t>4m40.120s</t>
+  </si>
+  <si>
+    <t>4m46.658s</t>
+  </si>
+  <si>
+    <t>5m13.262s</t>
+  </si>
+  <si>
+    <t>5m24.965s</t>
+  </si>
+  <si>
+    <t>6m35.635s</t>
+  </si>
+  <si>
+    <t>10m9.146s</t>
+  </si>
+  <si>
+    <t>5m51.112s</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="170" formatCode="0.000"/>
-    <numFmt numFmtId="172" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -278,13 +354,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -298,6 +371,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -351,7 +427,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Tempo de Execução da Aplicação por número de threads</a:t>
+              <a:t>Tempo de Execução da Aplicação (real) por número de threads</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -397,7 +473,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>gráfico!$A$2</c:f>
+              <c:f>'grafico-time-real'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -432,7 +508,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>gráfico!$B$1:$F$1</c:f>
+              <c:f>'grafico-time-real'!$B$1:$F$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -456,24 +532,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>gráfico!$B$2:$F$2</c:f>
+              <c:f>'grafico-time-real'!$B$2:$F$2</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>118.712</c:v>
+                  <c:v>119.691</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>137</c:v>
+                  <c:v>82.85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>204.12899999999999</c:v>
+                  <c:v>72.225999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>211.24799999999999</c:v>
+                  <c:v>75.989000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>261.97300000000001</c:v>
+                  <c:v>90.066000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -485,7 +561,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>gráfico!$A$3</c:f>
+              <c:f>'grafico-time-real'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -520,7 +596,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>gráfico!$B$1:$F$1</c:f>
+              <c:f>'grafico-time-real'!$B$1:$F$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -544,24 +620,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>gráfico!$B$3:$F$3</c:f>
+              <c:f>'grafico-time-real'!$B$3:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>131.23699999999999</c:v>
+                  <c:v>133.07499999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>175.22</c:v>
+                  <c:v>88.736999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>270.40699999999998</c:v>
+                  <c:v>76.509</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>282.53399999999999</c:v>
+                  <c:v>79.510000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>295.58499999999998</c:v>
+                  <c:v>82.771999999999991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -573,7 +649,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>gráfico!$A$4</c:f>
+              <c:f>'grafico-time-real'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -608,7 +684,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>gráfico!$B$1:$F$1</c:f>
+              <c:f>'grafico-time-real'!$B$1:$F$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -632,24 +708,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>gráfico!$B$4:$F$4</c:f>
+              <c:f>'grafico-time-real'!$B$4:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>150.404</c:v>
+                  <c:v>151.27600000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>188.81100000000001</c:v>
+                  <c:v>98.62299999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>303.33199999999999</c:v>
+                  <c:v>86.545000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>301.44600000000003</c:v>
+                  <c:v>86.492999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>307.03300000000002</c:v>
+                  <c:v>90.33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -661,7 +737,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>gráfico!$A$5</c:f>
+              <c:f>'grafico-time-real'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -696,7 +772,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>gráfico!$B$1:$F$1</c:f>
+              <c:f>'grafico-time-real'!$B$1:$F$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -720,24 +796,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>gráfico!$B$5:$F$5</c:f>
+              <c:f>'grafico-time-real'!$B$5:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>405.37200000000001</c:v>
+                  <c:v>405.59000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>621.47400000000005</c:v>
+                  <c:v>320.64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1043.4090000000001</c:v>
+                  <c:v>280.12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1066.4100000000001</c:v>
+                  <c:v>286.65800000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1068.1379999999999</c:v>
+                  <c:v>293.435</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -749,7 +825,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>gráfico!$A$6</c:f>
+              <c:f>'grafico-time-real'!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -784,7 +860,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>gráfico!$B$1:$F$1</c:f>
+              <c:f>'grafico-time-real'!$B$1:$F$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -808,206 +884,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>gráfico!$B$6:$F$6</c:f>
+              <c:f>'grafico-time-real'!$B$6:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>607.19299999999998</c:v>
+                  <c:v>609.14599999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>785.36099999999999</c:v>
+                  <c:v>395.63499999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1283.075</c:v>
+                  <c:v>324.96499999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1234.8689999999999</c:v>
+                  <c:v>313.262</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1365.3130000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>gráfico!$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>splash2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>gráfico!$B$1:$F$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>gráfico!$B$7:$F$7</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.58499999999999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.83599999999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.107</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.782</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.331</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>gráfico!$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>splash2x</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>gráfico!$B$1:$F$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>gráfico!$B$8:$F$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>202.726</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>322.14800000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>480.548</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>491.56599999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>559.40800000000002</c:v>
+                  <c:v>351.11200000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1024,11 +918,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1187450000"/>
-        <c:axId val="-1187448368"/>
+        <c:axId val="137636032"/>
+        <c:axId val="137626784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1187450000"/>
+        <c:axId val="137636032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1127,7 +1021,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1187448368"/>
+        <c:crossAx val="137626784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1135,7 +1029,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1187448368"/>
+        <c:axId val="137626784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1176,7 +1070,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>tempo de execução da aplicação (s) </a:t>
+                  <a:t>tempo de execução da aplicação (real - s) </a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1242,7 +1136,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1187450000"/>
+        <c:crossAx val="137636032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1404,7 +1298,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>gráfico_6_programas!$A$2</c:f>
+              <c:f>'gráfico-time-user'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1439,7 +1333,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>gráfico_6_programas!$B$1:$F$1</c:f>
+              <c:f>'gráfico-time-user'!$B$1:$F$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1463,9 +1357,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>gráfico_6_programas!$B$2:$F$2</c:f>
+              <c:f>'gráfico-time-user'!$B$2:$F$2</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>118.712</c:v>
@@ -1492,7 +1386,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>gráfico_6_programas!$A$3</c:f>
+              <c:f>'gráfico-time-user'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1527,7 +1421,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>gráfico_6_programas!$B$1:$F$1</c:f>
+              <c:f>'gráfico-time-user'!$B$1:$F$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1551,9 +1445,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>gráfico_6_programas!$B$3:$F$3</c:f>
+              <c:f>'gráfico-time-user'!$B$3:$F$3</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>131.23699999999999</c:v>
@@ -1580,7 +1474,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>gráfico_6_programas!$A$4</c:f>
+              <c:f>'gráfico-time-user'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1615,7 +1509,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>gráfico_6_programas!$B$1:$F$1</c:f>
+              <c:f>'gráfico-time-user'!$B$1:$F$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1639,9 +1533,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>gráfico_6_programas!$B$4:$F$4</c:f>
+              <c:f>'gráfico-time-user'!$B$4:$F$4</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>150.404</c:v>
@@ -1668,7 +1562,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>gráfico_6_programas!$A$5</c:f>
+              <c:f>'gráfico-time-user'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1703,7 +1597,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>gráfico_6_programas!$B$1:$F$1</c:f>
+              <c:f>'gráfico-time-user'!$B$1:$F$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1727,9 +1621,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>gráfico_6_programas!$B$5:$F$5</c:f>
+              <c:f>'gráfico-time-user'!$B$5:$F$5</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>405.37200000000001</c:v>
@@ -1756,7 +1650,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>gráfico_6_programas!$A$6</c:f>
+              <c:f>'gráfico-time-user'!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1791,7 +1685,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>gráfico_6_programas!$B$1:$F$1</c:f>
+              <c:f>'gráfico-time-user'!$B$1:$F$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1815,9 +1709,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>gráfico_6_programas!$B$6:$F$6</c:f>
+              <c:f>'gráfico-time-user'!$B$6:$F$6</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>607.19299999999998</c:v>
@@ -1844,11 +1738,11 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>gráfico_6_programas!$A$7</c:f>
+              <c:f>'gráfico-time-user'!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>splash2x</c:v>
+                  <c:v>splash2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1879,7 +1773,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>gráfico_6_programas!$B$1:$F$1</c:f>
+              <c:f>'gráfico-time-user'!$B$1:$F$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1903,9 +1797,103 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>gráfico_6_programas!$B$7:$F$7</c:f>
+              <c:f>'gráfico-time-user'!$B$7:$F$7</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.58499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.107</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.782</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'gráfico-time-user'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>splash2x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'gráfico-time-user'!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'gráfico-time-user'!$B$8:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>202.726</c:v>
@@ -1937,11 +1925,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1070051712"/>
-        <c:axId val="-1070050624"/>
+        <c:axId val="5896688"/>
+        <c:axId val="5897232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1070051712"/>
+        <c:axId val="5896688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2040,7 +2028,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1070050624"/>
+        <c:crossAx val="5897232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2048,7 +2036,920 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1070050624"/>
+        <c:axId val="5897232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>tempo de execução da aplicação (s) </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="5896688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tempo de Execução da Aplicação por número de threads</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'gráfico-time-suer-6-programas'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>blackscholes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'gráfico-time-suer-6-programas'!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'gráfico-time-suer-6-programas'!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>118.712</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>204.12899999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>211.24799999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>261.97300000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'gráfico-time-suer-6-programas'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vips</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'gráfico-time-suer-6-programas'!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'gráfico-time-suer-6-programas'!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>131.23699999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>175.22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>270.40699999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>282.53399999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>295.58499999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'gráfico-time-suer-6-programas'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bodytrack</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'gráfico-time-suer-6-programas'!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'gráfico-time-suer-6-programas'!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>150.404</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>188.81100000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>303.33199999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>301.44600000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>307.03300000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'gráfico-time-suer-6-programas'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fluidanimate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'gráfico-time-suer-6-programas'!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'gráfico-time-suer-6-programas'!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>405.37200000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>621.47400000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1043.4090000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1066.4100000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1068.1379999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'gráfico-time-suer-6-programas'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>freqmine</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'gráfico-time-suer-6-programas'!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'gráfico-time-suer-6-programas'!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>607.19299999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>785.36099999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1283.075</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1234.8689999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1365.3130000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'gráfico-time-suer-6-programas'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>splash2x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'gráfico-time-suer-6-programas'!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'gráfico-time-suer-6-programas'!$B$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>202.726</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>322.14800000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480.548</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>491.56599999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>559.40800000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="5900496"/>
+        <c:axId val="5899952"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="5900496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Número de Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="5899952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="5899952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2155,7 +3056,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1070051712"/>
+        <c:crossAx val="5900496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2316,6 +3217,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -3322,7 +4263,547 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3357,7 +4838,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3683,42 +5164,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19:L25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="14" style="2" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" style="2" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="2"/>
+    <col min="2" max="6" width="14" style="6" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" style="6" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="6"/>
     <col min="10" max="10" width="9.140625" style="3"/>
-    <col min="11" max="16384" width="9.140625" style="2"/>
+    <col min="11" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:17" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="2">
+      <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="6">
         <v>2</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="6">
         <v>4</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="6">
         <v>8</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3726,514 +5207,440 @@
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="13">
+      <c r="B3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="12">
         <v>1</v>
       </c>
-      <c r="I3" s="14">
-        <v>58.712000000000003</v>
-      </c>
-      <c r="J3" s="14">
-        <v>2</v>
-      </c>
-      <c r="K3" s="14">
-        <v>17</v>
-      </c>
-      <c r="L3" s="14">
-        <v>3</v>
-      </c>
-      <c r="M3" s="14">
-        <v>24.129000000000001</v>
-      </c>
-      <c r="N3" s="14">
-        <v>3</v>
-      </c>
-      <c r="O3" s="14">
-        <v>31.248000000000001</v>
-      </c>
-      <c r="P3" s="14">
-        <v>4</v>
-      </c>
-      <c r="Q3" s="14">
-        <v>21.972999999999999</v>
+      <c r="I3" s="13">
+        <v>59.691000000000003</v>
+      </c>
+      <c r="J3" s="13">
+        <v>1</v>
+      </c>
+      <c r="K3" s="13">
+        <v>22.85</v>
+      </c>
+      <c r="L3" s="13">
+        <v>1</v>
+      </c>
+      <c r="M3" s="13">
+        <v>12.226000000000001</v>
+      </c>
+      <c r="N3" s="13">
+        <v>1</v>
+      </c>
+      <c r="O3" s="13">
+        <v>15.989000000000001</v>
+      </c>
+      <c r="P3" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>30.065999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="15">
+      <c r="B4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="14">
         <v>2</v>
       </c>
-      <c r="I4" s="16">
-        <v>11.237</v>
-      </c>
-      <c r="J4" s="16">
-        <v>2</v>
-      </c>
-      <c r="K4" s="16">
-        <v>55.22</v>
-      </c>
-      <c r="L4" s="16">
-        <v>4</v>
-      </c>
-      <c r="M4" s="16">
-        <v>30.407</v>
-      </c>
-      <c r="N4" s="16">
-        <v>4</v>
-      </c>
-      <c r="O4" s="16">
-        <v>42.533999999999999</v>
-      </c>
-      <c r="P4" s="16">
-        <v>4</v>
-      </c>
-      <c r="Q4" s="16">
-        <v>55.585000000000001</v>
+      <c r="I4" s="15">
+        <v>13.074999999999999</v>
+      </c>
+      <c r="J4" s="15">
+        <v>1</v>
+      </c>
+      <c r="K4" s="15">
+        <v>28.736999999999998</v>
+      </c>
+      <c r="L4" s="15">
+        <v>1</v>
+      </c>
+      <c r="M4" s="15">
+        <v>16.509</v>
+      </c>
+      <c r="N4" s="15">
+        <v>1</v>
+      </c>
+      <c r="O4" s="15">
+        <v>19.510000000000002</v>
+      </c>
+      <c r="P4" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="15">
+        <v>22.771999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="15">
+      <c r="B5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="14">
         <v>2</v>
       </c>
-      <c r="I5" s="16">
-        <v>30.404</v>
-      </c>
-      <c r="J5" s="16">
-        <v>3</v>
-      </c>
-      <c r="K5" s="16">
-        <v>8.8109999999999999</v>
-      </c>
-      <c r="L5" s="16">
-        <v>5</v>
-      </c>
-      <c r="M5" s="16">
-        <v>3.3319999999999999</v>
-      </c>
-      <c r="N5" s="16">
-        <v>5</v>
-      </c>
-      <c r="O5" s="16">
-        <v>1.446</v>
-      </c>
-      <c r="P5" s="16">
-        <v>5</v>
-      </c>
-      <c r="Q5" s="16">
-        <v>7.0330000000000004</v>
+      <c r="I5" s="15">
+        <v>31.276</v>
+      </c>
+      <c r="J5" s="15">
+        <v>1</v>
+      </c>
+      <c r="K5" s="15">
+        <v>38.622999999999998</v>
+      </c>
+      <c r="L5" s="15">
+        <v>1</v>
+      </c>
+      <c r="M5" s="15">
+        <v>26.545000000000002</v>
+      </c>
+      <c r="N5" s="15">
+        <v>1</v>
+      </c>
+      <c r="O5" s="15">
+        <v>26.492999999999999</v>
+      </c>
+      <c r="P5" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="15">
+        <v>30.33</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="15">
+      <c r="B6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="14">
         <v>6</v>
       </c>
-      <c r="I6" s="16">
-        <v>45.372</v>
-      </c>
-      <c r="J6" s="16">
+      <c r="I6" s="15">
+        <v>45.59</v>
+      </c>
+      <c r="J6" s="15">
+        <v>5</v>
+      </c>
+      <c r="K6" s="15">
+        <v>20.64</v>
+      </c>
+      <c r="L6" s="15">
+        <v>4</v>
+      </c>
+      <c r="M6" s="15">
+        <v>40.119999999999997</v>
+      </c>
+      <c r="N6" s="15">
+        <v>4</v>
+      </c>
+      <c r="O6" s="15">
+        <v>46.658000000000001</v>
+      </c>
+      <c r="P6" s="15">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="15">
+        <v>53.435000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="14">
         <v>10</v>
       </c>
-      <c r="K6" s="16">
-        <v>21.474</v>
-      </c>
-      <c r="L6" s="16">
-        <v>17</v>
-      </c>
-      <c r="M6" s="16">
-        <v>23.408999999999999</v>
-      </c>
-      <c r="N6" s="16">
-        <v>17</v>
-      </c>
-      <c r="O6" s="16">
-        <v>46.41</v>
-      </c>
-      <c r="P6" s="16">
-        <v>17</v>
-      </c>
-      <c r="Q6" s="16">
-        <v>48.137999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="15">
-        <v>10</v>
-      </c>
-      <c r="I7" s="16">
-        <v>7.1929999999999996</v>
-      </c>
-      <c r="J7" s="16">
-        <v>13</v>
-      </c>
-      <c r="K7" s="16">
-        <v>5.3609999999999998</v>
-      </c>
-      <c r="L7" s="16">
-        <v>21</v>
-      </c>
-      <c r="M7" s="16">
-        <v>23.074999999999999</v>
-      </c>
-      <c r="N7" s="16">
-        <v>20</v>
-      </c>
-      <c r="O7" s="16">
-        <v>34.869</v>
-      </c>
-      <c r="P7" s="16">
-        <v>22</v>
-      </c>
-      <c r="Q7" s="16">
-        <v>45.313000000000002</v>
+      <c r="I7" s="15">
+        <v>9.1460000000000008</v>
+      </c>
+      <c r="J7" s="15">
+        <v>6</v>
+      </c>
+      <c r="K7" s="15">
+        <v>35.634999999999998</v>
+      </c>
+      <c r="L7" s="15">
+        <v>5</v>
+      </c>
+      <c r="M7" s="15">
+        <v>24.965</v>
+      </c>
+      <c r="N7" s="15">
+        <v>5</v>
+      </c>
+      <c r="O7" s="15">
+        <v>13.262</v>
+      </c>
+      <c r="P7" s="15">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="15">
+        <v>51.112000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="15">
-        <v>0</v>
-      </c>
-      <c r="I8" s="16">
-        <v>0.58499999999999996</v>
-      </c>
-      <c r="J8" s="16">
-        <v>0</v>
-      </c>
-      <c r="K8" s="16">
-        <v>0.83599999999999997</v>
-      </c>
-      <c r="L8" s="16">
-        <v>0</v>
-      </c>
-      <c r="M8" s="16">
-        <v>1.107</v>
-      </c>
-      <c r="N8" s="16">
-        <v>0</v>
-      </c>
-      <c r="O8" s="16">
-        <v>1.782</v>
-      </c>
-      <c r="P8" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="16">
-        <v>2.331</v>
-      </c>
+      <c r="A8" s="6"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
     </row>
     <row r="9" spans="1:17" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="15">
-        <v>3</v>
-      </c>
-      <c r="I9" s="16">
-        <v>22.725999999999999</v>
-      </c>
-      <c r="J9" s="16">
-        <v>5</v>
-      </c>
-      <c r="K9" s="16">
-        <v>22.148</v>
-      </c>
-      <c r="L9" s="16">
-        <v>8</v>
-      </c>
-      <c r="M9" s="16">
-        <v>0.54800000000000004</v>
-      </c>
-      <c r="N9" s="16">
-        <v>8</v>
-      </c>
-      <c r="O9" s="16">
-        <v>11.566000000000001</v>
-      </c>
-      <c r="P9" s="16">
-        <v>9</v>
-      </c>
-      <c r="Q9" s="16">
-        <v>19.408000000000001</v>
-      </c>
+      <c r="A9" s="6"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
     </row>
     <row r="10" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
     </row>
     <row r="11" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="H11" s="2">
+      <c r="H11" s="6">
         <f>H3*60+I3</f>
-        <v>118.712</v>
-      </c>
-      <c r="J11" s="2">
+        <v>119.691</v>
+      </c>
+      <c r="J11" s="6">
         <f>J3*60+K3</f>
-        <v>137</v>
-      </c>
-      <c r="L11" s="2">
+        <v>82.85</v>
+      </c>
+      <c r="L11" s="6">
         <f>L3*60+M3</f>
-        <v>204.12899999999999</v>
-      </c>
-      <c r="N11" s="2">
+        <v>72.225999999999999</v>
+      </c>
+      <c r="N11" s="6">
         <f>N3*60+O3</f>
-        <v>211.24799999999999</v>
-      </c>
-      <c r="P11" s="2">
+        <v>75.989000000000004</v>
+      </c>
+      <c r="P11" s="6">
         <f>P3*60+Q3</f>
-        <v>261.97300000000001</v>
+        <v>90.066000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="H12" s="2">
+      <c r="H12" s="6">
         <f t="shared" ref="H12:J17" si="0">H4*60+I4</f>
-        <v>131.23699999999999</v>
-      </c>
-      <c r="J12" s="2">
+        <v>133.07499999999999</v>
+      </c>
+      <c r="J12" s="6">
         <f t="shared" si="0"/>
-        <v>175.22</v>
-      </c>
-      <c r="L12" s="2">
-        <f t="shared" ref="L12" si="1">L4*60+M4</f>
-        <v>270.40699999999998</v>
-      </c>
-      <c r="N12" s="2">
-        <f t="shared" ref="N12" si="2">N4*60+O4</f>
-        <v>282.53399999999999</v>
-      </c>
-      <c r="P12" s="2">
+        <v>88.736999999999995</v>
+      </c>
+      <c r="L12" s="6">
+        <f t="shared" ref="L12:L17" si="1">L4*60+M4</f>
+        <v>76.509</v>
+      </c>
+      <c r="N12" s="6">
+        <f t="shared" ref="N12:N17" si="2">N4*60+O4</f>
+        <v>79.510000000000005</v>
+      </c>
+      <c r="P12" s="6">
         <f t="shared" ref="P12:P17" si="3">P4*60+Q4</f>
-        <v>295.58499999999998</v>
+        <v>82.771999999999991</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
-      <c r="H13" s="2">
+      <c r="H13" s="6">
         <f t="shared" si="0"/>
-        <v>150.404</v>
-      </c>
-      <c r="J13" s="2">
+        <v>151.27600000000001</v>
+      </c>
+      <c r="J13" s="6">
         <f t="shared" si="0"/>
-        <v>188.81100000000001</v>
-      </c>
-      <c r="L13" s="2">
-        <f t="shared" ref="L13" si="4">L5*60+M5</f>
-        <v>303.33199999999999</v>
-      </c>
-      <c r="N13" s="2">
-        <f t="shared" ref="N13" si="5">N5*60+O5</f>
-        <v>301.44600000000003</v>
-      </c>
-      <c r="P13" s="2">
+        <v>98.62299999999999</v>
+      </c>
+      <c r="L13" s="6">
+        <f t="shared" si="1"/>
+        <v>86.545000000000002</v>
+      </c>
+      <c r="N13" s="6">
+        <f t="shared" si="2"/>
+        <v>86.492999999999995</v>
+      </c>
+      <c r="P13" s="6">
         <f t="shared" si="3"/>
-        <v>307.03300000000002</v>
+        <v>90.33</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="H14" s="2">
+      <c r="H14" s="6">
         <f t="shared" si="0"/>
-        <v>405.37200000000001</v>
-      </c>
-      <c r="J14" s="2">
+        <v>405.59000000000003</v>
+      </c>
+      <c r="J14" s="6">
         <f t="shared" si="0"/>
-        <v>621.47400000000005</v>
-      </c>
-      <c r="L14" s="2">
-        <f t="shared" ref="L14" si="6">L6*60+M6</f>
-        <v>1043.4090000000001</v>
-      </c>
-      <c r="N14" s="2">
-        <f t="shared" ref="N14" si="7">N6*60+O6</f>
-        <v>1066.4100000000001</v>
-      </c>
-      <c r="P14" s="2">
+        <v>320.64</v>
+      </c>
+      <c r="L14" s="6">
+        <f t="shared" si="1"/>
+        <v>280.12</v>
+      </c>
+      <c r="N14" s="6">
+        <f t="shared" si="2"/>
+        <v>286.65800000000002</v>
+      </c>
+      <c r="P14" s="6">
         <f t="shared" si="3"/>
-        <v>1068.1379999999999</v>
+        <v>293.435</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="H15" s="2">
+      <c r="H15" s="6">
         <f t="shared" si="0"/>
-        <v>607.19299999999998</v>
-      </c>
-      <c r="J15" s="2">
+        <v>609.14599999999996</v>
+      </c>
+      <c r="J15" s="6">
         <f t="shared" si="0"/>
-        <v>785.36099999999999</v>
-      </c>
-      <c r="L15" s="2">
-        <f t="shared" ref="L15" si="8">L7*60+M7</f>
-        <v>1283.075</v>
-      </c>
-      <c r="N15" s="2">
-        <f t="shared" ref="N15" si="9">N7*60+O7</f>
-        <v>1234.8689999999999</v>
-      </c>
-      <c r="P15" s="2">
+        <v>395.63499999999999</v>
+      </c>
+      <c r="L15" s="6">
+        <f t="shared" si="1"/>
+        <v>324.96499999999997</v>
+      </c>
+      <c r="N15" s="6">
+        <f t="shared" si="2"/>
+        <v>313.262</v>
+      </c>
+      <c r="P15" s="6">
         <f t="shared" si="3"/>
-        <v>1365.3130000000001</v>
+        <v>351.11200000000002</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="H16" s="2">
+      <c r="H16" s="6">
         <f t="shared" si="0"/>
-        <v>0.58499999999999996</v>
-      </c>
-      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6">
         <f t="shared" si="0"/>
-        <v>0.83599999999999997</v>
-      </c>
-      <c r="L16" s="2">
-        <f t="shared" ref="L16:L17" si="10">L8*60+M8</f>
-        <v>1.107</v>
-      </c>
-      <c r="N16" s="2">
-        <f t="shared" ref="N16:N17" si="11">N8*60+O8</f>
-        <v>1.782</v>
-      </c>
-      <c r="P16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="6">
         <f t="shared" si="3"/>
-        <v>2.331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="H17" s="2">
+      <c r="H17" s="6">
         <f t="shared" si="0"/>
-        <v>202.726</v>
-      </c>
-      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6">
         <f t="shared" si="0"/>
-        <v>322.14800000000002</v>
-      </c>
-      <c r="L17" s="2">
-        <f t="shared" si="10"/>
-        <v>480.548</v>
-      </c>
-      <c r="N17" s="2">
-        <f t="shared" si="11"/>
-        <v>491.56599999999997</v>
-      </c>
-      <c r="P17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="6">
         <f t="shared" si="3"/>
-        <v>559.40800000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4241,158 +5648,158 @@
     </row>
     <row r="19" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
-      <c r="H19" s="2">
+      <c r="H19" s="6">
         <f>H11</f>
-        <v>118.712</v>
-      </c>
-      <c r="I19" s="2">
+        <v>119.691</v>
+      </c>
+      <c r="I19" s="6">
         <f>J11</f>
-        <v>137</v>
+        <v>82.85</v>
       </c>
       <c r="J19" s="3">
         <f>L11</f>
-        <v>204.12899999999999</v>
-      </c>
-      <c r="K19" s="2">
+        <v>72.225999999999999</v>
+      </c>
+      <c r="K19" s="6">
         <f>N11</f>
-        <v>211.24799999999999</v>
-      </c>
-      <c r="L19" s="2">
+        <v>75.989000000000004</v>
+      </c>
+      <c r="L19" s="6">
         <f>P11</f>
-        <v>261.97300000000001</v>
+        <v>90.066000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
-      <c r="H20" s="2">
-        <f t="shared" ref="H20:H25" si="12">H12</f>
-        <v>131.23699999999999</v>
-      </c>
-      <c r="I20" s="2">
-        <f t="shared" ref="I20:I25" si="13">J12</f>
-        <v>175.22</v>
+      <c r="H20" s="6">
+        <f t="shared" ref="H20:H25" si="4">H12</f>
+        <v>133.07499999999999</v>
+      </c>
+      <c r="I20" s="6">
+        <f t="shared" ref="I20:I25" si="5">J12</f>
+        <v>88.736999999999995</v>
       </c>
       <c r="J20" s="3">
-        <f t="shared" ref="J20:J25" si="14">L12</f>
-        <v>270.40699999999998</v>
-      </c>
-      <c r="K20" s="2">
-        <f t="shared" ref="K20:K25" si="15">N12</f>
-        <v>282.53399999999999</v>
-      </c>
-      <c r="L20" s="2">
-        <f t="shared" ref="L20:L25" si="16">P12</f>
-        <v>295.58499999999998</v>
+        <f t="shared" ref="J20:J25" si="6">L12</f>
+        <v>76.509</v>
+      </c>
+      <c r="K20" s="6">
+        <f t="shared" ref="K20:K25" si="7">N12</f>
+        <v>79.510000000000005</v>
+      </c>
+      <c r="L20" s="6">
+        <f t="shared" ref="L20:L25" si="8">P12</f>
+        <v>82.771999999999991</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H21" s="2">
-        <f t="shared" si="12"/>
-        <v>150.404</v>
-      </c>
-      <c r="I21" s="2">
-        <f t="shared" si="13"/>
-        <v>188.81100000000001</v>
+      <c r="H21" s="6">
+        <f t="shared" si="4"/>
+        <v>151.27600000000001</v>
+      </c>
+      <c r="I21" s="6">
+        <f t="shared" si="5"/>
+        <v>98.62299999999999</v>
       </c>
       <c r="J21" s="3">
-        <f t="shared" si="14"/>
-        <v>303.33199999999999</v>
-      </c>
-      <c r="K21" s="2">
-        <f t="shared" si="15"/>
-        <v>301.44600000000003</v>
-      </c>
-      <c r="L21" s="2">
-        <f t="shared" si="16"/>
-        <v>307.03300000000002</v>
+        <f t="shared" si="6"/>
+        <v>86.545000000000002</v>
+      </c>
+      <c r="K21" s="6">
+        <f t="shared" si="7"/>
+        <v>86.492999999999995</v>
+      </c>
+      <c r="L21" s="6">
+        <f t="shared" si="8"/>
+        <v>90.33</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H22" s="2">
-        <f t="shared" si="12"/>
-        <v>405.37200000000001</v>
-      </c>
-      <c r="I22" s="2">
-        <f t="shared" si="13"/>
-        <v>621.47400000000005</v>
+      <c r="H22" s="6">
+        <f t="shared" si="4"/>
+        <v>405.59000000000003</v>
+      </c>
+      <c r="I22" s="6">
+        <f t="shared" si="5"/>
+        <v>320.64</v>
       </c>
       <c r="J22" s="3">
-        <f t="shared" si="14"/>
-        <v>1043.4090000000001</v>
-      </c>
-      <c r="K22" s="2">
-        <f t="shared" si="15"/>
-        <v>1066.4100000000001</v>
-      </c>
-      <c r="L22" s="2">
-        <f t="shared" si="16"/>
-        <v>1068.1379999999999</v>
+        <f t="shared" si="6"/>
+        <v>280.12</v>
+      </c>
+      <c r="K22" s="6">
+        <f t="shared" si="7"/>
+        <v>286.65800000000002</v>
+      </c>
+      <c r="L22" s="6">
+        <f t="shared" si="8"/>
+        <v>293.435</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H23" s="2">
-        <f t="shared" si="12"/>
-        <v>607.19299999999998</v>
-      </c>
-      <c r="I23" s="2">
-        <f t="shared" si="13"/>
-        <v>785.36099999999999</v>
+      <c r="H23" s="6">
+        <f t="shared" si="4"/>
+        <v>609.14599999999996</v>
+      </c>
+      <c r="I23" s="6">
+        <f t="shared" si="5"/>
+        <v>395.63499999999999</v>
       </c>
       <c r="J23" s="3">
-        <f t="shared" si="14"/>
-        <v>1283.075</v>
-      </c>
-      <c r="K23" s="2">
-        <f t="shared" si="15"/>
-        <v>1234.8689999999999</v>
-      </c>
-      <c r="L23" s="2">
-        <f t="shared" si="16"/>
-        <v>1365.3130000000001</v>
+        <f t="shared" si="6"/>
+        <v>324.96499999999997</v>
+      </c>
+      <c r="K23" s="6">
+        <f t="shared" si="7"/>
+        <v>313.262</v>
+      </c>
+      <c r="L23" s="6">
+        <f t="shared" si="8"/>
+        <v>351.11200000000002</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H24" s="2">
-        <f t="shared" si="12"/>
-        <v>0.58499999999999996</v>
-      </c>
-      <c r="I24" s="2">
-        <f t="shared" si="13"/>
-        <v>0.83599999999999997</v>
+      <c r="H24" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="J24" s="3">
-        <f t="shared" si="14"/>
-        <v>1.107</v>
-      </c>
-      <c r="K24" s="2">
-        <f t="shared" si="15"/>
-        <v>1.782</v>
-      </c>
-      <c r="L24" s="2">
-        <f t="shared" si="16"/>
-        <v>2.331</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H25" s="2">
-        <f t="shared" si="12"/>
-        <v>202.726</v>
-      </c>
-      <c r="I25" s="2">
-        <f t="shared" si="13"/>
-        <v>322.14800000000002</v>
+      <c r="H25" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="J25" s="3">
-        <f t="shared" si="14"/>
-        <v>480.548</v>
-      </c>
-      <c r="K25" s="2">
-        <f t="shared" si="15"/>
-        <v>491.56599999999997</v>
-      </c>
-      <c r="L25" s="2">
-        <f t="shared" si="16"/>
-        <v>559.40800000000002</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4400,6 +5807,7 @@
     <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4408,7 +5816,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F8"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4441,141 +5849,117 @@
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12">
-        <v>118.712</v>
-      </c>
-      <c r="C2" s="12">
-        <v>137</v>
-      </c>
-      <c r="D2" s="12">
-        <v>204.12899999999999</v>
-      </c>
-      <c r="E2" s="12">
-        <v>211.24799999999999</v>
-      </c>
-      <c r="F2" s="12">
-        <v>261.97300000000001</v>
+      <c r="B2" s="11">
+        <v>119.691</v>
+      </c>
+      <c r="C2" s="11">
+        <v>82.85</v>
+      </c>
+      <c r="D2" s="11">
+        <v>72.225999999999999</v>
+      </c>
+      <c r="E2" s="11">
+        <v>75.989000000000004</v>
+      </c>
+      <c r="F2" s="11">
+        <v>90.066000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12">
-        <v>131.23699999999999</v>
-      </c>
-      <c r="C3" s="12">
-        <v>175.22</v>
-      </c>
-      <c r="D3" s="12">
-        <v>270.40699999999998</v>
-      </c>
-      <c r="E3" s="12">
-        <v>282.53399999999999</v>
-      </c>
-      <c r="F3" s="12">
-        <v>295.58499999999998</v>
+      <c r="B3" s="11">
+        <v>133.07499999999999</v>
+      </c>
+      <c r="C3" s="11">
+        <v>88.736999999999995</v>
+      </c>
+      <c r="D3" s="11">
+        <v>76.509</v>
+      </c>
+      <c r="E3" s="11">
+        <v>79.510000000000005</v>
+      </c>
+      <c r="F3" s="11">
+        <v>82.771999999999991</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="12">
-        <v>150.404</v>
-      </c>
-      <c r="C4" s="12">
-        <v>188.81100000000001</v>
-      </c>
-      <c r="D4" s="12">
-        <v>303.33199999999999</v>
-      </c>
-      <c r="E4" s="12">
-        <v>301.44600000000003</v>
-      </c>
-      <c r="F4" s="12">
-        <v>307.03300000000002</v>
+      <c r="B4" s="11">
+        <v>151.27600000000001</v>
+      </c>
+      <c r="C4" s="11">
+        <v>98.62299999999999</v>
+      </c>
+      <c r="D4" s="11">
+        <v>86.545000000000002</v>
+      </c>
+      <c r="E4" s="11">
+        <v>86.492999999999995</v>
+      </c>
+      <c r="F4" s="11">
+        <v>90.33</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="12">
-        <v>405.37200000000001</v>
-      </c>
-      <c r="C5" s="12">
-        <v>621.47400000000005</v>
-      </c>
-      <c r="D5" s="12">
-        <v>1043.4090000000001</v>
-      </c>
-      <c r="E5" s="12">
-        <v>1066.4100000000001</v>
-      </c>
-      <c r="F5" s="12">
-        <v>1068.1379999999999</v>
+      <c r="B5" s="11">
+        <v>405.59000000000003</v>
+      </c>
+      <c r="C5" s="11">
+        <v>320.64</v>
+      </c>
+      <c r="D5" s="11">
+        <v>280.12</v>
+      </c>
+      <c r="E5" s="11">
+        <v>286.65800000000002</v>
+      </c>
+      <c r="F5" s="11">
+        <v>293.435</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="12">
-        <v>607.19299999999998</v>
-      </c>
-      <c r="C6" s="12">
-        <v>785.36099999999999</v>
-      </c>
-      <c r="D6" s="12">
-        <v>1283.075</v>
-      </c>
-      <c r="E6" s="12">
-        <v>1234.8689999999999</v>
-      </c>
-      <c r="F6" s="12">
-        <v>1365.3130000000001</v>
+      <c r="B6" s="11">
+        <v>609.14599999999996</v>
+      </c>
+      <c r="C6" s="11">
+        <v>395.63499999999999</v>
+      </c>
+      <c r="D6" s="11">
+        <v>324.96499999999997</v>
+      </c>
+      <c r="E6" s="11">
+        <v>313.262</v>
+      </c>
+      <c r="F6" s="11">
+        <v>351.11200000000002</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="12">
-        <v>0.58499999999999996</v>
-      </c>
-      <c r="C7" s="12">
-        <v>0.83599999999999997</v>
-      </c>
-      <c r="D7" s="12">
-        <v>1.107</v>
-      </c>
-      <c r="E7" s="12">
-        <v>1.782</v>
-      </c>
-      <c r="F7" s="12">
-        <v>2.331</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="12">
-        <v>202.726</v>
-      </c>
-      <c r="C8" s="12">
-        <v>322.14800000000002</v>
-      </c>
-      <c r="D8" s="12">
-        <v>480.548</v>
-      </c>
-      <c r="E8" s="12">
-        <v>491.56599999999997</v>
-      </c>
-      <c r="F8" s="12">
-        <v>559.40800000000002</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F9" s="8"/>
@@ -4587,6 +5971,189 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="8"/>
+      <c r="B1" s="7">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7">
+        <v>4</v>
+      </c>
+      <c r="E1" s="7">
+        <v>8</v>
+      </c>
+      <c r="F1" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11">
+        <v>118.712</v>
+      </c>
+      <c r="C2" s="11">
+        <v>137</v>
+      </c>
+      <c r="D2" s="11">
+        <v>204.12899999999999</v>
+      </c>
+      <c r="E2" s="11">
+        <v>211.24799999999999</v>
+      </c>
+      <c r="F2" s="11">
+        <v>261.97300000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11">
+        <v>131.23699999999999</v>
+      </c>
+      <c r="C3" s="11">
+        <v>175.22</v>
+      </c>
+      <c r="D3" s="11">
+        <v>270.40699999999998</v>
+      </c>
+      <c r="E3" s="11">
+        <v>282.53399999999999</v>
+      </c>
+      <c r="F3" s="11">
+        <v>295.58499999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11">
+        <v>150.404</v>
+      </c>
+      <c r="C4" s="11">
+        <v>188.81100000000001</v>
+      </c>
+      <c r="D4" s="11">
+        <v>303.33199999999999</v>
+      </c>
+      <c r="E4" s="11">
+        <v>301.44600000000003</v>
+      </c>
+      <c r="F4" s="11">
+        <v>307.03300000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11">
+        <v>405.37200000000001</v>
+      </c>
+      <c r="C5" s="11">
+        <v>621.47400000000005</v>
+      </c>
+      <c r="D5" s="11">
+        <v>1043.4090000000001</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1066.4100000000001</v>
+      </c>
+      <c r="F5" s="11">
+        <v>1068.1379999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11">
+        <v>607.19299999999998</v>
+      </c>
+      <c r="C6" s="11">
+        <v>785.36099999999999</v>
+      </c>
+      <c r="D6" s="11">
+        <v>1283.075</v>
+      </c>
+      <c r="E6" s="11">
+        <v>1234.8689999999999</v>
+      </c>
+      <c r="F6" s="11">
+        <v>1365.3130000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1.107</v>
+      </c>
+      <c r="E7" s="11">
+        <v>1.782</v>
+      </c>
+      <c r="F7" s="11">
+        <v>2.331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11">
+        <v>202.726</v>
+      </c>
+      <c r="C8" s="11">
+        <v>322.14800000000002</v>
+      </c>
+      <c r="D8" s="11">
+        <v>480.548</v>
+      </c>
+      <c r="E8" s="11">
+        <v>491.56599999999997</v>
+      </c>
+      <c r="F8" s="11">
+        <v>559.40800000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -4624,19 +6191,19 @@
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>118.712</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>137</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>204.12899999999999</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <v>211.24799999999999</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <v>261.97300000000001</v>
       </c>
     </row>
@@ -4644,19 +6211,19 @@
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>131.23699999999999</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>175.22</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>270.40699999999998</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>282.53399999999999</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>295.58499999999998</v>
       </c>
     </row>
@@ -4664,19 +6231,19 @@
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>150.404</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>188.81100000000001</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>303.33199999999999</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>301.44600000000003</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>307.03300000000002</v>
       </c>
     </row>
@@ -4684,19 +6251,19 @@
       <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>405.37200000000001</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>621.47400000000005</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>1043.4090000000001</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>1066.4100000000001</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>1068.1379999999999</v>
       </c>
     </row>
@@ -4704,19 +6271,19 @@
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>607.19299999999998</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>785.36099999999999</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>1283.075</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>1234.8689999999999</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>1365.3130000000001</v>
       </c>
     </row>
@@ -4724,19 +6291,19 @@
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>202.726</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>322.14800000000002</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>480.548</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>491.56599999999997</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>559.40800000000002</v>
       </c>
     </row>
@@ -4749,178 +6316,726 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="14" style="2" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" style="2" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="2"/>
+    <col min="10" max="10" width="9.140625" style="3"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="7">
+    <row r="1" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+    </row>
+    <row r="2" spans="1:17" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="7">
+      <c r="C2" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="7">
+      <c r="D2" s="2">
         <v>4</v>
       </c>
-      <c r="E1" s="7">
+      <c r="E2" s="2">
         <v>8</v>
       </c>
-      <c r="F1" s="7">
+      <c r="F2" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="3" spans="1:17" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="12">
+        <v>1</v>
+      </c>
+      <c r="I3" s="13">
+        <v>58.712000000000003</v>
+      </c>
+      <c r="J3" s="13">
+        <v>2</v>
+      </c>
+      <c r="K3" s="13">
+        <v>17</v>
+      </c>
+      <c r="L3" s="13">
+        <v>3</v>
+      </c>
+      <c r="M3" s="13">
+        <v>24.129000000000001</v>
+      </c>
+      <c r="N3" s="13">
+        <v>3</v>
+      </c>
+      <c r="O3" s="13">
+        <v>31.248000000000001</v>
+      </c>
+      <c r="P3" s="13">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>21.972999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="14">
+        <v>2</v>
+      </c>
+      <c r="I4" s="15">
+        <v>11.237</v>
+      </c>
+      <c r="J4" s="15">
+        <v>2</v>
+      </c>
+      <c r="K4" s="15">
+        <v>55.22</v>
+      </c>
+      <c r="L4" s="15">
+        <v>4</v>
+      </c>
+      <c r="M4" s="15">
+        <v>30.407</v>
+      </c>
+      <c r="N4" s="15">
+        <v>4</v>
+      </c>
+      <c r="O4" s="15">
+        <v>42.533999999999999</v>
+      </c>
+      <c r="P4" s="15">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="15">
+        <v>55.585000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="14">
+        <v>2</v>
+      </c>
+      <c r="I5" s="15">
+        <v>30.404</v>
+      </c>
+      <c r="J5" s="15">
+        <v>3</v>
+      </c>
+      <c r="K5" s="15">
+        <v>8.8109999999999999</v>
+      </c>
+      <c r="L5" s="15">
+        <v>5</v>
+      </c>
+      <c r="M5" s="15">
+        <v>3.3319999999999999</v>
+      </c>
+      <c r="N5" s="15">
+        <v>5</v>
+      </c>
+      <c r="O5" s="15">
+        <v>1.446</v>
+      </c>
+      <c r="P5" s="15">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="15">
+        <v>7.0330000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="14">
+        <v>6</v>
+      </c>
+      <c r="I6" s="15">
+        <v>45.372</v>
+      </c>
+      <c r="J6" s="15">
+        <v>10</v>
+      </c>
+      <c r="K6" s="15">
+        <v>21.474</v>
+      </c>
+      <c r="L6" s="15">
+        <v>17</v>
+      </c>
+      <c r="M6" s="15">
+        <v>23.408999999999999</v>
+      </c>
+      <c r="N6" s="15">
+        <v>17</v>
+      </c>
+      <c r="O6" s="15">
+        <v>46.41</v>
+      </c>
+      <c r="P6" s="15">
+        <v>17</v>
+      </c>
+      <c r="Q6" s="15">
+        <v>48.137999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="14">
+        <v>10</v>
+      </c>
+      <c r="I7" s="15">
+        <v>7.1929999999999996</v>
+      </c>
+      <c r="J7" s="15">
+        <v>13</v>
+      </c>
+      <c r="K7" s="15">
+        <v>5.3609999999999998</v>
+      </c>
+      <c r="L7" s="15">
+        <v>21</v>
+      </c>
+      <c r="M7" s="15">
+        <v>23.074999999999999</v>
+      </c>
+      <c r="N7" s="15">
+        <v>20</v>
+      </c>
+      <c r="O7" s="15">
+        <v>34.869</v>
+      </c>
+      <c r="P7" s="15">
+        <v>22</v>
+      </c>
+      <c r="Q7" s="15">
+        <v>45.313000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0</v>
+      </c>
+      <c r="I8" s="15">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="J8" s="15">
+        <v>0</v>
+      </c>
+      <c r="K8" s="15">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="L8" s="15">
+        <v>0</v>
+      </c>
+      <c r="M8" s="15">
+        <v>1.107</v>
+      </c>
+      <c r="N8" s="15">
+        <v>0</v>
+      </c>
+      <c r="O8" s="15">
+        <v>1.782</v>
+      </c>
+      <c r="P8" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="15">
+        <v>2.331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="14">
+        <v>3</v>
+      </c>
+      <c r="I9" s="15">
+        <v>22.725999999999999</v>
+      </c>
+      <c r="J9" s="15">
+        <v>5</v>
+      </c>
+      <c r="K9" s="15">
+        <v>22.148</v>
+      </c>
+      <c r="L9" s="15">
+        <v>8</v>
+      </c>
+      <c r="M9" s="15">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="N9" s="15">
+        <v>8</v>
+      </c>
+      <c r="O9" s="15">
+        <v>11.566000000000001</v>
+      </c>
+      <c r="P9" s="15">
+        <v>9</v>
+      </c>
+      <c r="Q9" s="15">
+        <v>19.408000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+    </row>
+    <row r="11" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="H11" s="2">
+        <f>H3*60+I3</f>
         <v>118.712</v>
       </c>
-      <c r="C2" s="10">
+      <c r="J11" s="2">
+        <f>J3*60+K3</f>
         <v>137</v>
       </c>
-      <c r="D2" s="10">
+      <c r="L11" s="2">
+        <f>L3*60+M3</f>
         <v>204.12899999999999</v>
       </c>
-      <c r="E2" s="10">
+      <c r="N11" s="2">
+        <f>N3*60+O3</f>
         <v>211.24799999999999</v>
       </c>
-      <c r="F2" s="10">
+      <c r="P11" s="2">
+        <f>P3*60+Q3</f>
         <v>261.97300000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="10">
+    <row r="12" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="H12" s="2">
+        <f t="shared" ref="H12:J17" si="0">H4*60+I4</f>
         <v>131.23699999999999</v>
       </c>
-      <c r="C3" s="10">
+      <c r="J12" s="2">
+        <f t="shared" si="0"/>
         <v>175.22</v>
       </c>
-      <c r="D3" s="10">
+      <c r="L12" s="2">
+        <f t="shared" ref="L12" si="1">L4*60+M4</f>
         <v>270.40699999999998</v>
       </c>
-      <c r="E3" s="10">
+      <c r="N12" s="2">
+        <f t="shared" ref="N12" si="2">N4*60+O4</f>
         <v>282.53399999999999</v>
       </c>
-      <c r="F3" s="10">
+      <c r="P12" s="2">
+        <f t="shared" ref="P12:P17" si="3">P4*60+Q4</f>
         <v>295.58499999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="10">
+    <row r="13" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="H13" s="2">
+        <f t="shared" si="0"/>
         <v>150.404</v>
       </c>
-      <c r="C4" s="10">
+      <c r="J13" s="2">
+        <f t="shared" si="0"/>
         <v>188.81100000000001</v>
       </c>
-      <c r="D4" s="10">
+      <c r="L13" s="2">
+        <f t="shared" ref="L13" si="4">L5*60+M5</f>
         <v>303.33199999999999</v>
       </c>
-      <c r="E4" s="10">
+      <c r="N13" s="2">
+        <f t="shared" ref="N13" si="5">N5*60+O5</f>
         <v>301.44600000000003</v>
       </c>
-      <c r="F4" s="10">
+      <c r="P13" s="2">
+        <f t="shared" si="3"/>
         <v>307.03300000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="10">
+    <row r="14" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="H14" s="2">
+        <f t="shared" si="0"/>
         <v>405.37200000000001</v>
       </c>
-      <c r="C5" s="10">
+      <c r="J14" s="2">
+        <f t="shared" si="0"/>
         <v>621.47400000000005</v>
       </c>
-      <c r="D5" s="10">
+      <c r="L14" s="2">
+        <f t="shared" ref="L14" si="6">L6*60+M6</f>
         <v>1043.4090000000001</v>
       </c>
-      <c r="E5" s="10">
+      <c r="N14" s="2">
+        <f t="shared" ref="N14" si="7">N6*60+O6</f>
         <v>1066.4100000000001</v>
       </c>
-      <c r="F5" s="10">
+      <c r="P14" s="2">
+        <f t="shared" si="3"/>
         <v>1068.1379999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="10">
+    <row r="15" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="H15" s="2">
+        <f t="shared" si="0"/>
         <v>607.19299999999998</v>
       </c>
-      <c r="C6" s="10">
+      <c r="J15" s="2">
+        <f t="shared" si="0"/>
         <v>785.36099999999999</v>
       </c>
-      <c r="D6" s="10">
+      <c r="L15" s="2">
+        <f t="shared" ref="L15" si="8">L7*60+M7</f>
         <v>1283.075</v>
       </c>
-      <c r="E6" s="10">
+      <c r="N15" s="2">
+        <f t="shared" ref="N15" si="9">N7*60+O7</f>
         <v>1234.8689999999999</v>
       </c>
-      <c r="F6" s="10">
+      <c r="P15" s="2">
+        <f t="shared" si="3"/>
         <v>1365.3130000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="10">
+    <row r="16" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="H16" s="2">
+        <f t="shared" si="0"/>
         <v>0.58499999999999996</v>
       </c>
-      <c r="C7" s="10">
+      <c r="J16" s="2">
+        <f t="shared" si="0"/>
         <v>0.83599999999999997</v>
       </c>
-      <c r="D7" s="10">
+      <c r="L16" s="2">
+        <f t="shared" ref="L16:L17" si="10">L8*60+M8</f>
         <v>1.107</v>
       </c>
-      <c r="E7" s="10">
+      <c r="N16" s="2">
+        <f t="shared" ref="N16:N17" si="11">N8*60+O8</f>
         <v>1.782</v>
       </c>
-      <c r="F7" s="10">
+      <c r="P16" s="2">
+        <f t="shared" si="3"/>
         <v>2.331</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="10">
+    <row r="17" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="H17" s="2">
+        <f t="shared" si="0"/>
         <v>202.726</v>
       </c>
-      <c r="C8" s="10">
+      <c r="J17" s="2">
+        <f t="shared" si="0"/>
         <v>322.14800000000002</v>
       </c>
-      <c r="D8" s="10">
+      <c r="L17" s="2">
+        <f t="shared" si="10"/>
         <v>480.548</v>
       </c>
-      <c r="E8" s="10">
+      <c r="N17" s="2">
+        <f t="shared" si="11"/>
         <v>491.56599999999997</v>
       </c>
-      <c r="F8" s="10">
+      <c r="P17" s="2">
+        <f t="shared" si="3"/>
         <v>559.40800000000002</v>
       </c>
     </row>
+    <row r="18" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+    </row>
+    <row r="19" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="H19" s="2">
+        <f>H11</f>
+        <v>118.712</v>
+      </c>
+      <c r="I19" s="2">
+        <f>J11</f>
+        <v>137</v>
+      </c>
+      <c r="J19" s="3">
+        <f>L11</f>
+        <v>204.12899999999999</v>
+      </c>
+      <c r="K19" s="2">
+        <f>N11</f>
+        <v>211.24799999999999</v>
+      </c>
+      <c r="L19" s="2">
+        <f>P11</f>
+        <v>261.97300000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="H20" s="2">
+        <f t="shared" ref="H20:H25" si="12">H12</f>
+        <v>131.23699999999999</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" ref="I20:I25" si="13">J12</f>
+        <v>175.22</v>
+      </c>
+      <c r="J20" s="3">
+        <f t="shared" ref="J20:J25" si="14">L12</f>
+        <v>270.40699999999998</v>
+      </c>
+      <c r="K20" s="2">
+        <f t="shared" ref="K20:K25" si="15">N12</f>
+        <v>282.53399999999999</v>
+      </c>
+      <c r="L20" s="2">
+        <f t="shared" ref="L20:L25" si="16">P12</f>
+        <v>295.58499999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="2">
+        <f t="shared" si="12"/>
+        <v>150.404</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="13"/>
+        <v>188.81100000000001</v>
+      </c>
+      <c r="J21" s="3">
+        <f t="shared" si="14"/>
+        <v>303.33199999999999</v>
+      </c>
+      <c r="K21" s="2">
+        <f t="shared" si="15"/>
+        <v>301.44600000000003</v>
+      </c>
+      <c r="L21" s="2">
+        <f t="shared" si="16"/>
+        <v>307.03300000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H22" s="2">
+        <f t="shared" si="12"/>
+        <v>405.37200000000001</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="13"/>
+        <v>621.47400000000005</v>
+      </c>
+      <c r="J22" s="3">
+        <f t="shared" si="14"/>
+        <v>1043.4090000000001</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" si="15"/>
+        <v>1066.4100000000001</v>
+      </c>
+      <c r="L22" s="2">
+        <f t="shared" si="16"/>
+        <v>1068.1379999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H23" s="2">
+        <f t="shared" si="12"/>
+        <v>607.19299999999998</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="13"/>
+        <v>785.36099999999999</v>
+      </c>
+      <c r="J23" s="3">
+        <f t="shared" si="14"/>
+        <v>1283.075</v>
+      </c>
+      <c r="K23" s="2">
+        <f t="shared" si="15"/>
+        <v>1234.8689999999999</v>
+      </c>
+      <c r="L23" s="2">
+        <f t="shared" si="16"/>
+        <v>1365.3130000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H24" s="2">
+        <f t="shared" si="12"/>
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="13"/>
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="J24" s="3">
+        <f t="shared" si="14"/>
+        <v>1.107</v>
+      </c>
+      <c r="K24" s="2">
+        <f t="shared" si="15"/>
+        <v>1.782</v>
+      </c>
+      <c r="L24" s="2">
+        <f t="shared" si="16"/>
+        <v>2.331</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H25" s="2">
+        <f t="shared" si="12"/>
+        <v>202.726</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="13"/>
+        <v>322.14800000000002</v>
+      </c>
+      <c r="J25" s="3">
+        <f t="shared" si="14"/>
+        <v>480.548</v>
+      </c>
+      <c r="K25" s="2">
+        <f t="shared" si="15"/>
+        <v>491.56599999999997</v>
+      </c>
+      <c r="L25" s="2">
+        <f t="shared" si="16"/>
+        <v>559.40800000000002</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>